--- a/output_data/charts/capacity-Bexley-1600000US3906278.xlsx
+++ b/output_data/charts/capacity-Bexley-1600000US3906278.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -507,16 +507,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -847,7 +847,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2240</c:v>
+                  <c:v>2.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -859,7 +859,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -877,31 +877,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13000</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7600</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75200</c:v>
+                  <c:v>75.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12200</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91700</c:v>
+                  <c:v>91.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98830</c:v>
+                  <c:v>98.83</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66180</c:v>
+                  <c:v>66.18000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55480</c:v>
+                  <c:v>55.48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34065</c:v>
+                  <c:v>34.065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>2240</v>
+        <v>2.24</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>13000</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>7600</v>
+        <v>7.6</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>75200</v>
+        <v>75.2</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>12200</v>
+        <v>12.2</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>91700</v>
+        <v>91.7</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>98830</v>
+        <v>98.83</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>66180</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>55480</v>
+        <v>55.48</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>34065</v>
+        <v>34.065</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-Bexley-1600000US3906278.xlsx
+++ b/output_data/charts/capacity-Bexley-1600000US3906278.xlsx
@@ -901,7 +901,7 @@
                   <c:v>55.48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34.065</c:v>
+                  <c:v>36.965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>34.065</v>
+        <v>36.965</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
